--- a/Documentation/Github BOM.xlsx
+++ b/Documentation/Github BOM.xlsx
@@ -6820,8 +6820,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008194CFF8E98BB44995FFDC42C88547FB" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="75565f53f8b8a0ccf90259745eed9703">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0458e1e6-288a-43ec-a132-a1b2211b0602" xmlns:ns3="53974bf4-1688-41c6-9fc9-158ee2e3207f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d24ed4fe0a17b4a418e0014c8b0c469f" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008194CFF8E98BB44995FFDC42C88547FB" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2edd173af022ec9f4cabb12b74af787f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0458e1e6-288a-43ec-a132-a1b2211b0602" xmlns:ns3="53974bf4-1688-41c6-9fc9-158ee2e3207f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b9b0c1805e15f24afdf219704a516f41" ns2:_="" ns3:_="">
     <xsd:import namespace="0458e1e6-288a-43ec-a132-a1b2211b0602"/>
     <xsd:import namespace="53974bf4-1688-41c6-9fc9-158ee2e3207f"/>
     <xsd:element name="properties">
@@ -6842,6 +6842,7 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6909,6 +6910,11 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="21" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -7052,5 +7058,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93730B6E-B2A4-4B56-A80A-A88B7BDE8A7D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42A6AEB2-BC99-4C8A-B9CF-DB9B98EF111A}"/>
 </file>